--- a/Output/Modelling/Logistic Regression/Tables/model_comparison_df.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/model_comparison_df.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share Less Than 1 Rating From Actual</t>
+          <t>Share 1 Rating Or Less From Actual</t>
         </is>
       </c>
     </row>
